--- a/code/Data/Unlandmarks.xlsx
+++ b/code/Data/Unlandmarks.xlsx
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
